--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,18 +40,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
@@ -64,33 +67,39 @@
     <t>fuck</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>crazy</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -115,54 +124,54 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>first</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
@@ -175,16 +184,19 @@
     <t>media</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
     <t>…</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>watching</t>
+    <t>watched</t>
   </si>
   <si>
     <t>’</t>
@@ -548,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,10 +632,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -688,16 +700,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9519230769230769</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C5">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,16 +800,16 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.7017543859649122</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,16 +850,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.6896551724137931</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.64</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6956521739130435</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.5925925925925926</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6595744680851063</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.5454545454545454</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6594202898550725</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,31 +1097,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.5277777777777778</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L12">
+        <v>17</v>
+      </c>
+      <c r="M12">
+        <v>17</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>19</v>
-      </c>
-      <c r="M12">
-        <v>19</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.65</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.4067796610169492</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6153846153846154</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.3658536585365854</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,38 +1229,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5769230769230769</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="C15">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15">
+        <v>0.3658536585365854</v>
+      </c>
+      <c r="L15">
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>15</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>11</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="L15">
-        <v>17</v>
-      </c>
-      <c r="M15">
-        <v>17</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1259,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1288,16 +1300,16 @@
         <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.3142076502732241</v>
+        <v>0.3224043715846995</v>
       </c>
       <c r="L16">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="M16">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1329,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5428571428571428</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.2769230769230769</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,13 +1379,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5357142857142857</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1385,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.2592592592592592</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1417,13 +1429,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1435,31 +1447,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19">
+        <v>0.2622950819672131</v>
+      </c>
+      <c r="L19">
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>45</v>
-      </c>
-      <c r="K19">
-        <v>0.2459016393442623</v>
-      </c>
-      <c r="L19">
-        <v>15</v>
-      </c>
-      <c r="M19">
-        <v>15</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1467,13 +1479,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4285714285714285</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1485,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.2421052631578947</v>
+        <v>0.2394366197183098</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1509,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,13 +1529,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2051282051282051</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1535,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.2</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1559,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1567,80 +1579,128 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.05084745762711865</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.1690140845070423</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="C23">
         <v>12</v>
       </c>
-      <c r="M22">
+      <c r="D23">
         <v>12</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.1643835616438356</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L23">
         <v>12</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.217948717948718</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K24">
         <v>0.09841269841269841</v>
@@ -1665,17 +1725,41 @@
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.05154639175257732</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>0.35</v>
+      </c>
+      <c r="F25">
+        <v>0.65</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>276</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.09444444444444444</v>
+        <v>0.09074074074074075</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1687,21 +1771,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.09036144578313253</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="L26">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1713,21 +1797,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.07949308755760369</v>
+        <v>0.07467532467532467</v>
       </c>
       <c r="L27">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="M27">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1739,21 +1823,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>1598</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.07773851590106007</v>
+        <v>0.07420494699646643</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1765,47 +1849,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.07142857142857142</v>
+        <v>0.06764705882352941</v>
       </c>
       <c r="L29">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>572</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.06744868035190615</v>
+        <v>0.05817972350230415</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1817,33 +1901,59 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>318</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.03461538461538462</v>
+        <v>0.04513888888888889</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N31">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>753</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K32">
+        <v>0.03713188220230474</v>
+      </c>
+      <c r="L32">
+        <v>29</v>
+      </c>
+      <c r="M32">
+        <v>29</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>752</v>
       </c>
     </row>
   </sheetData>
